--- a/Stocks/SUNTV.xlsx
+++ b/Stocks/SUNTV.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>926</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>791.84295842373206</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>789.26947093833542</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>47.862899193818976</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>17</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>20.600000000000023</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.82524271844660102</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>812.68439247924823</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-9.7106881749065224</v>
       </c>
       <c r="Y67">
         <v>-6.77581661129142</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>721</v>
+      </c>
+      <c r="D83">
+        <v>721</v>
+      </c>
+      <c r="E83">
+        <v>709.5</v>
+      </c>
+      <c r="F83">
+        <v>714</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>714.83333333333337</v>
+      </c>
+      <c r="H83">
+        <v>714.68737400754435</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>735.07759181218796</v>
+      </c>
+      <c r="K83">
+        <v>710.37878664992058</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>42.046461112767943</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>4.5</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>11.5</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.39130434782608697</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>727.09348773716317</v>
+      </c>
+      <c r="W83">
+        <v>751.32600386783247</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-24.232516130669296</v>
+      </c>
+      <c r="Y83">
+        <v>-23.604947846679032</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>710.5</v>
+      </c>
+      <c r="D84">
+        <v>716.4</v>
+      </c>
+      <c r="E84">
+        <v>698.1</v>
+      </c>
+      <c r="F84">
+        <v>699.65</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>704.7166666666667</v>
+      </c>
+      <c r="H84">
+        <v>709.70202033710552</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>730.92701585392399</v>
+      </c>
+      <c r="K84">
+        <v>707.65016739438272</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>32.3494646802285</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>1.5499999999999545</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>18.299999999999955</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>8.4699453551910289E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V84">
+        <v>722.8714127006765</v>
+      </c>
+      <c r="W84">
+        <v>747.49815172947456</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-24.626739028798056</v>
+      </c>
+      <c r="Y84">
+        <v>-23.809306083102836</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>704.9</v>
+      </c>
+      <c r="D85">
+        <v>714.65</v>
+      </c>
+      <c r="E85">
+        <v>699.3</v>
+      </c>
+      <c r="F85">
+        <v>703</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>705.65</v>
+      </c>
+      <c r="H85">
+        <v>707.67601016855269</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>727.30990121971865</v>
+      </c>
+      <c r="K85">
+        <v>705.79457464007544</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N85">
+        <v>36.615217720023892</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>3.7000000000000455</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>15.350000000000023</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.24104234527687557</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>719.81427228518783</v>
+      </c>
+      <c r="W85">
+        <v>744.20199234210611</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-24.387720056918283</v>
+      </c>
+      <c r="Y85">
+        <v>-23.924988877865925</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>703</v>
+      </c>
+      <c r="D86">
+        <v>708</v>
+      </c>
+      <c r="E86">
+        <v>692.35</v>
+      </c>
+      <c r="F86">
+        <v>697.1</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>699.15</v>
+      </c>
+      <c r="H86">
+        <v>703.41300508427639</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>723.01881205978123</v>
+      </c>
+      <c r="K86">
+        <v>702.8068913867254</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N86">
+        <v>32.151985475094783</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>4.75</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>15.649999999999977</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.30351437699680556</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>716.31976885669735</v>
+      </c>
+      <c r="W86">
+        <v>740.71295587232044</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-24.393187015623084</v>
+      </c>
+      <c r="Y86">
+        <v>-24.018628505417357</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>710.3</v>
+      </c>
+      <c r="D87">
+        <v>782.4</v>
+      </c>
+      <c r="E87">
+        <v>710</v>
+      </c>
+      <c r="F87">
+        <v>768</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>753.4666666666667</v>
+      </c>
+      <c r="H87">
+        <v>728.43983587547154</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>736.21463160205201</v>
+      </c>
+      <c r="K87">
+        <v>704.40535996745314</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>76.034039253902435</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>58</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>72.399999999999977</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.80110497237569089</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>724.27057364797463</v>
+      </c>
+      <c r="W87">
+        <v>742.73421840029675</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-18.463644752322125</v>
+      </c>
+      <c r="Y87">
+        <v>-22.907631754798309</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>765</v>
+      </c>
+      <c r="D88">
+        <v>812.8</v>
+      </c>
+      <c r="E88">
+        <v>753.3</v>
+      </c>
+      <c r="F88">
+        <v>805.2</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>790.43333333333339</v>
+      </c>
+      <c r="H88">
+        <v>759.43658460440247</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>753.23360235715154</v>
+      </c>
+      <c r="K88">
+        <v>715.27083553024136</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>83.172171585442157</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>51.900000000000091</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>59.5</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.87226890756302677</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V88">
+        <v>736.72125462520933</v>
+      </c>
+      <c r="W88">
+        <v>747.36131333360811</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-10.640058708398783</v>
+      </c>
+      <c r="Y88">
+        <v>-20.454117145518403</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD88">
+        <f t="shared" si="35"/>
+        <v>760.1</v>
+      </c>
+      <c r="AE88">
+        <f t="shared" si="36"/>
+        <v>776.05000000000007</v>
+      </c>
+      <c r="AF88">
+        <f t="shared" si="37"/>
+        <v>783.05000000000007</v>
+      </c>
+      <c r="AG88">
+        <f t="shared" si="38"/>
+        <v>790.05000000000007</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>820</v>
+      </c>
+      <c r="D89">
+        <v>839</v>
+      </c>
+      <c r="E89">
+        <v>815.2</v>
+      </c>
+      <c r="F89">
+        <v>824.4</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>826.19999999999993</v>
+      </c>
+      <c r="H89">
+        <v>792.81829230220114</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>772.29280183334004</v>
+      </c>
+      <c r="K89">
+        <v>737.47731652352104</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>85.884563105249811</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>9.1999999999999318</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>23.799999999999955</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.38655462184873735</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>750.21029237517712</v>
+      </c>
+      <c r="W89">
+        <v>753.06788271630376</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-2.8575903411266381</v>
+      </c>
+      <c r="Y89">
+        <v>-16.934811784640051</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>814.25</v>
+      </c>
+      <c r="D90">
+        <v>848.4</v>
+      </c>
+      <c r="E90">
+        <v>813.15</v>
+      </c>
+      <c r="F90">
+        <v>835.65</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>832.4</v>
+      </c>
+      <c r="H90">
+        <v>812.6091461511005</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>789.2055125370423</v>
+      </c>
+      <c r="K90">
+        <v>754.29346840718301</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>87.375010447619601</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>22.5</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>35.25</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.63829787234042556</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>763.35486277899599</v>
+      </c>
+      <c r="W90">
+        <v>759.18507658917019</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>4.1697861898257997</v>
+      </c>
+      <c r="Y90">
+        <v>-12.713892189746879</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>840</v>
+      </c>
+      <c r="D91">
+        <v>846</v>
+      </c>
+      <c r="E91">
+        <v>831.1</v>
+      </c>
+      <c r="F91">
+        <v>833.4</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>836.83333333333337</v>
+      </c>
+      <c r="H91">
+        <v>824.72123974221699</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>801.82650975103286</v>
+      </c>
+      <c r="K91">
+        <v>771.36158653892016</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>85.127850486070599</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>2.2999999999999545</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>14.899999999999977</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.15436241610737975</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>774.13103773607349</v>
+      </c>
+      <c r="W91">
+        <v>764.68247832330576</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>9.4485594127677359</v>
+      </c>
+      <c r="Y91">
+        <v>-8.2814018692439557</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>840.65</v>
+      </c>
+      <c r="D92">
+        <v>841.15</v>
+      </c>
+      <c r="E92">
+        <v>794.1</v>
+      </c>
+      <c r="F92">
+        <v>809.8</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>815.01666666666677</v>
+      </c>
+      <c r="H92">
+        <v>819.86895320444182</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>810.56506313969226</v>
+      </c>
+      <c r="K92">
+        <v>776.41456730804907</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>63.661318991816444</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>15.699999999999932</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>47.049999999999955</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.3336875664187024</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>779.61857039206222</v>
+      </c>
+      <c r="W92">
+        <v>768.02451696602384</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>11.594053426038386</v>
+      </c>
+      <c r="Y92">
+        <v>-4.3063108101874867</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>815.9</v>
+      </c>
+      <c r="D93">
+        <v>836</v>
+      </c>
+      <c r="E93">
+        <v>813</v>
+      </c>
+      <c r="F93">
+        <v>831</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>826.66666666666663</v>
+      </c>
+      <c r="H93">
+        <v>823.26780993555417</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>816.21727133087177</v>
+      </c>
+      <c r="K93">
+        <v>784.54466346181596</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>71.68020711432446</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>18</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>787.52340571636034</v>
+      </c>
+      <c r="W93">
+        <v>772.68936756113317</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>14.834038155227177</v>
+      </c>
+      <c r="Y93">
+        <v>-0.47824101710455391</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>840</v>
+      </c>
+      <c r="D94">
+        <v>840</v>
+      </c>
+      <c r="E94">
+        <v>821.8</v>
+      </c>
+      <c r="F94">
+        <v>826</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>829.26666666666677</v>
+      </c>
+      <c r="H94">
+        <v>826.26723830111041</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>821.50232214623361</v>
+      </c>
+      <c r="K94">
+        <v>792.82362713696796</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>67.301802934008464</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>4.2000000000000455</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>18.200000000000045</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.2307692307692327</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>793.44288175999725</v>
+      </c>
+      <c r="W94">
+        <v>776.63830329734549</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>16.804578462651762</v>
+      </c>
+      <c r="Y94">
+        <v>2.9783228788467095</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>834</v>
+      </c>
+      <c r="D95">
+        <v>834.45</v>
+      </c>
+      <c r="E95">
+        <v>808.2</v>
+      </c>
+      <c r="F95">
+        <v>815.05</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>819.23333333333323</v>
+      </c>
+      <c r="H95">
+        <v>822.75028581722177</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>824.37958389151504</v>
+      </c>
+      <c r="K95">
+        <v>796.24059888430838</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>57.660245107985034</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>6.8499999999999091</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>26.25</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.26095238095237749</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>796.76705379692078</v>
+      </c>
+      <c r="W95">
+        <v>779.4836141642088</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>17.283439632711975</v>
+      </c>
+      <c r="Y95">
+        <v>5.8393462296197622</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>818</v>
+      </c>
+      <c r="D96">
+        <v>840</v>
+      </c>
+      <c r="E96">
+        <v>813.9</v>
+      </c>
+      <c r="F96">
+        <v>834</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>829.30000000000007</v>
+      </c>
+      <c r="H96">
+        <v>826.02514290861086</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>827.85078747117836</v>
+      </c>
+      <c r="K96">
+        <v>800.16491024335096</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>67.677180221897203</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>20.100000000000023</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>26.100000000000023</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.7701149425287358</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>802.49519936662523</v>
+      </c>
+      <c r="W96">
+        <v>783.52186496685999</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>18.973334399765236</v>
+      </c>
+      <c r="Y96">
+        <v>8.4661438636488562</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>830</v>
+      </c>
+      <c r="D97">
+        <v>836</v>
+      </c>
+      <c r="E97">
+        <v>815</v>
+      </c>
+      <c r="F97">
+        <v>824</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>825</v>
+      </c>
+      <c r="H97">
+        <v>825.51257145430543</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>829.66172358869426</v>
+      </c>
+      <c r="K97">
+        <v>803.46159685593966</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>58.541313008218928</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>805.80363023329824</v>
+      </c>
+      <c r="W97">
+        <v>786.52024533968518</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>19.283384893613061</v>
+      </c>
+      <c r="Y97">
+        <v>10.629592069641697</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>829</v>
+      </c>
+      <c r="D98">
+        <v>856</v>
+      </c>
+      <c r="E98">
+        <v>826.8</v>
+      </c>
+      <c r="F98">
+        <v>852.1</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>844.9666666666667</v>
+      </c>
+      <c r="H98">
+        <v>835.23961906048612</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>835.51467390231778</v>
+      </c>
+      <c r="K98">
+        <v>808.64790866573082</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>71.876377406530722</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>25.300000000000068</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>29.200000000000045</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.86643835616438458</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V98">
+        <v>812.92614865894461</v>
+      </c>
+      <c r="W98">
+        <v>791.37800494415296</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>21.548143714791649</v>
+      </c>
+      <c r="Y98">
+        <v>12.813302398671688</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>855</v>
+      </c>
+      <c r="D99">
+        <v>865.5</v>
+      </c>
+      <c r="E99">
+        <v>843.15</v>
+      </c>
+      <c r="F99">
+        <v>852</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>853.55000000000007</v>
+      </c>
+      <c r="H99">
+        <v>844.39480953024304</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>842.17807970180274</v>
+      </c>
+      <c r="K99">
+        <v>816.31504007334615</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>71.77368259635449</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>8.8500000000000227</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>22.350000000000023</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.3959731543624167</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>818.9375104037224</v>
+      </c>
+      <c r="W99">
+        <v>795.86852309643791</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>23.068987307284488</v>
+      </c>
+      <c r="Y99">
+        <v>14.864439380394249</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>852</v>
+      </c>
+      <c r="D100">
+        <v>856</v>
+      </c>
+      <c r="E100">
+        <v>838.45</v>
+      </c>
+      <c r="F100">
+        <v>842</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>845.48333333333323</v>
+      </c>
+      <c r="H100">
+        <v>844.93907143178808</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>845.2496175458466</v>
+      </c>
+      <c r="K100">
+        <v>821.23392005704704</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>60.897599803771627</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>3.5499999999999545</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>17.549999999999955</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.20227920227920021</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>822.48558572622665</v>
+      </c>
+      <c r="W100">
+        <v>799.28566953373877</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>23.199916192487876</v>
+      </c>
+      <c r="Y100">
+        <v>16.531534742812973</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>842</v>
+      </c>
+      <c r="D101">
+        <v>847.65</v>
+      </c>
+      <c r="E101">
+        <v>815.05</v>
+      </c>
+      <c r="F101">
+        <v>830</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>830.9</v>
+      </c>
+      <c r="H101">
+        <v>837.91953571589397</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>845.78303586899176</v>
+      </c>
+      <c r="K101">
+        <v>819.85971559992549</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>49.619182934733495</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>14.950000000000045</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>32.600000000000023</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.4585889570552158</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>823.6416494606533</v>
+      </c>
+      <c r="W101">
+        <v>801.56080512383221</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>22.080844336821087</v>
+      </c>
+      <c r="Y101">
+        <v>17.641396661614596</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>831.3</v>
+      </c>
+      <c r="D102">
+        <v>850.9</v>
+      </c>
+      <c r="E102">
+        <v>812</v>
+      </c>
+      <c r="F102">
+        <v>822.15</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>828.35</v>
+      </c>
+      <c r="H102">
+        <v>833.13476785794705</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>846.92013900921586</v>
+      </c>
+      <c r="K102">
+        <v>818.11311213327542</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>43.093079912103541</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>10.149999999999977</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>38.899999999999977</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.26092544987146488</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>823.41216492824515</v>
+      </c>
+      <c r="W102">
+        <v>803.08593067021502</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>20.326234258030127</v>
+      </c>
+      <c r="Y102">
+        <v>18.178364180897702</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>819.45</v>
+      </c>
+      <c r="D103">
+        <v>825.5</v>
+      </c>
+      <c r="E103">
+        <v>773.45</v>
+      </c>
+      <c r="F103">
+        <v>783.05</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>794</v>
+      </c>
+      <c r="H103">
+        <v>813.56738392897353</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>842.16010811827903</v>
+      </c>
+      <c r="K103">
+        <v>808.18797610365868</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>23.692067543257519</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>9.5999999999999091</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>52.049999999999955</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.18443804034581973</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V103">
+        <v>817.20260109313051</v>
+      </c>
+      <c r="W103">
+        <v>801.60178765760645</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>15.60081343552406</v>
+      </c>
+      <c r="Y103">
+        <v>17.662854031822974</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>788.8</v>
+      </c>
+      <c r="D104">
+        <v>790.5</v>
+      </c>
+      <c r="E104">
+        <v>750.8</v>
+      </c>
+      <c r="F104">
+        <v>773.55</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>771.61666666666667</v>
+      </c>
+      <c r="H104">
+        <v>792.5920252978201</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>830.68008409199479</v>
+      </c>
+      <c r="K104">
+        <v>795.43509252506783</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>20.842242703419902</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>22.75</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>39.700000000000045</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.57304785894206478</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>810.48681630957196</v>
+      </c>
+      <c r="W104">
+        <v>799.52387746074669</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>10.962938848825274</v>
+      </c>
+      <c r="Y104">
+        <v>16.322870995223433</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>780</v>
+      </c>
+      <c r="D105">
+        <v>785.7</v>
+      </c>
+      <c r="E105">
+        <v>735.95</v>
+      </c>
+      <c r="F105">
+        <v>742.35</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>754.66666666666663</v>
+      </c>
+      <c r="H105">
+        <v>773.62934598224342</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>820.68450984932929</v>
+      </c>
+      <c r="K105">
+        <v>782.21618307505275</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>13.952444405303346</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>6.3999999999999773</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>49.75</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.12864321608040155</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>800.00422918502238</v>
+      </c>
+      <c r="W105">
+        <v>795.28877542661735</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>4.7154537584050331</v>
+      </c>
+      <c r="Y105">
+        <v>14.001387547859753</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>780.05000000000007</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>766.7</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>760.85</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>754.95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>743.7</v>
+      </c>
+      <c r="D106">
+        <v>746.85</v>
+      </c>
+      <c r="E106">
+        <v>717.45</v>
+      </c>
+      <c r="F106">
+        <v>733.5</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>732.6</v>
+      </c>
+      <c r="H106">
+        <v>753.11467299112178</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>804.27684099392275</v>
+      </c>
+      <c r="K106">
+        <v>767.82369794726321</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>12.488661583911842</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>16.049999999999955</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>29.399999999999977</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.54591836734693766</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>789.77280931040355</v>
+      </c>
+      <c r="W106">
+        <v>790.71182909871982</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-0.93901978831627275</v>
+      </c>
+      <c r="Y106">
+        <v>11.013306080624549</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>740.85</v>
+      </c>
+      <c r="D107">
+        <v>768.8</v>
+      </c>
+      <c r="E107">
+        <v>737.05</v>
+      </c>
+      <c r="F107">
+        <v>764.85</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>756.9</v>
+      </c>
+      <c r="H107">
+        <v>755.00733649556082</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>796.39309855082877</v>
+      </c>
+      <c r="K107">
+        <v>760.98509840342695</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>40.246863895225893</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>27.800000000000068</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>31.75</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.87559055118110451</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>785.93853095495683</v>
+      </c>
+      <c r="W107">
+        <v>788.7961380543702</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-2.8576070994133715</v>
+      </c>
+      <c r="Y107">
+        <v>8.2391234446169648</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
